--- a/sputnik/personal/uch/uch310.xlsx
+++ b/sputnik/personal/uch/uch310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,13 +34,19 @@
   </si>
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -110,32 +121,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -168,15 +153,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +475,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,10 +489,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -514,11 +503,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>12308.48</v>
@@ -526,11 +515,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>43344</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -538,11 +527,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>43466</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>983.04</v>
@@ -550,11 +539,11 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>43586</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>11376.64</v>
@@ -592,9 +581,6 @@
       <c r="D11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch310.xlsx
+++ b/sputnik/personal/uch/uch310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №310</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,6 +168,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,7 +479,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,9 +555,15 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>13291.52</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch310.xlsx
+++ b/sputnik/personal/uch/uch310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,15 +573,27 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13649.92</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="12">
+        <v>44197</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>505.04</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
